--- a/接口文档.xlsx
+++ b/接口文档.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lu\Desktop\JAVA Projects\SpringBoot Projects\educational_management_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228CCFCA-5CAC-4D2F-ABDA-C5CDA7539086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF885099-4316-47A5-8D04-B8EDA60A5C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="97">
   <si>
     <t>admin-controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,205 +162,222 @@
     <t>/select_course/{student_id}/{term_schedule_id}</t>
   </si>
   <si>
+    <t>/select_course/page</t>
+  </si>
+  <si>
+    <t>/select_course/score</t>
+  </si>
+  <si>
+    <t>分页查select_course表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按id查select_course表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[JSON] 至少有id [可选项为scoreExam scoreTotal scroeUsual]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按id登记分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径变量 student_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径变量 term_schedule_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取某学生的所有课程&amp;成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取某班级的所有学生&amp;成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径变量 student_id term_schedule_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给某学号的同学选某开课号的课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/select_course/{select_course_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径变量 select_course_i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>! 注意select_course_id是选课记录的id   term_schedule_id是开课表中的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student-controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/student</t>
+  </si>
+  <si>
+    <t>/student/{id}</t>
+  </si>
+  <si>
+    <t>/student/info</t>
+  </si>
+  <si>
+    <t>/student/login</t>
+  </si>
+  <si>
+    <t>/student/logout</t>
+  </si>
+  <si>
+    <t>/student/page</t>
+  </si>
+  <si>
+    <t>/student/status</t>
+  </si>
+  <si>
+    <t>新增student</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改student</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按id查student表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改student的status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[JSON] 随意 非空字段或异常有提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[JSON] 至少有id [忽略status]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[JSON] id status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher-controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teacher</t>
+  </si>
+  <si>
+    <t>/teacher/{id}</t>
+  </si>
+  <si>
+    <t>/teacher/info</t>
+  </si>
+  <si>
+    <t>/teacher/login</t>
+  </si>
+  <si>
+    <t>/teacher/logout</t>
+  </si>
+  <si>
+    <t>/teacher/page</t>
+  </si>
+  <si>
+    <t>/teacher/status</t>
+  </si>
+  <si>
+    <t>新增teacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改teacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按id查teacher表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页查teacher表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改teacher的status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term-schedule-controller</t>
+  </si>
+  <si>
+    <t>/term_schedule</t>
+  </si>
+  <si>
+    <t>/term_schedule/{id}</t>
+  </si>
+  <si>
+    <t>/term_schedule/page</t>
+  </si>
+  <si>
+    <t>新增开课信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改开课信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按id查开课表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按id删除开课表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页查开课表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[JSON] 至少有id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/select_course/teacher/{teacher_id}</t>
+  </si>
+  <si>
+    <t>查询某老师开设的所有课程与相应的学生成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径变量 teacher_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/select_course/student/{student_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/select_course/class/{term_schedule_id}</t>
-  </si>
-  <si>
-    <t>/select_course/course/{student_id}</t>
-  </si>
-  <si>
-    <t>/select_course/page</t>
-  </si>
-  <si>
-    <t>/select_course/score</t>
-  </si>
-  <si>
-    <t>分页查select_course表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按id查select_course表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[JSON] 至少有id [可选项为scoreExam scoreTotal scroeUsual]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按id登记分数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径变量 student_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径变量 term_schedule_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取某学生的所有课程&amp;成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取某班级的所有学生&amp;成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径变量 student_id term_schedule_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给某学号的同学选某开课号的课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/select_course/{select_course_id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径变量 select_course_i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>! 注意select_course_id是选课记录的id   term_schedule_id是开课表中的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student-controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/student</t>
-  </si>
-  <si>
-    <t>/student/{id}</t>
-  </si>
-  <si>
-    <t>/student/info</t>
-  </si>
-  <si>
-    <t>/student/login</t>
-  </si>
-  <si>
-    <t>/student/logout</t>
-  </si>
-  <si>
-    <t>/student/page</t>
-  </si>
-  <si>
-    <t>/student/status</t>
-  </si>
-  <si>
-    <t>新增student</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改student</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按id查student表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改student的status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[JSON] 随意 非空字段或异常有提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[JSON] 至少有id [忽略status]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[JSON] id status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teacher-controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/teacher</t>
-  </si>
-  <si>
-    <t>/teacher/{id}</t>
-  </si>
-  <si>
-    <t>/teacher/info</t>
-  </si>
-  <si>
-    <t>/teacher/login</t>
-  </si>
-  <si>
-    <t>/teacher/logout</t>
-  </si>
-  <si>
-    <t>/teacher/page</t>
-  </si>
-  <si>
-    <t>/teacher/status</t>
-  </si>
-  <si>
-    <t>新增teacher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改teacher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按id查teacher表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分页查teacher表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改teacher的status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>term-schedule-controller</t>
-  </si>
-  <si>
-    <t>/term_schedule</t>
-  </si>
-  <si>
-    <t>/term_schedule/{id}</t>
-  </si>
-  <si>
-    <t>/term_schedule/page</t>
-  </si>
-  <si>
-    <t>新增开课信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改开课信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按id查开课表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按id删除开课表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分页查开课表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[JSON] 至少有id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentPage, pageSize, termSchedule(模糊匹配)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -864,7 +881,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -928,7 +945,7 @@
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -953,7 +970,7 @@
         <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -964,13 +981,13 @@
         <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
         <v>51</v>
-      </c>
-      <c r="D21" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -981,10 +998,10 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -992,13 +1009,13 @@
         <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1006,105 +1023,102 @@
         <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" t="s">
-        <v>44</v>
       </c>
       <c r="D26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>55</v>
+      <c r="A27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>12</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>25</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>6</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="B31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1112,27 +1126,27 @@
         <v>13</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1140,100 +1154,100 @@
         <v>14</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="2"/>
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>12</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>25</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>6</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="B42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="B43" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1241,27 +1255,27 @@
         <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" t="s">
         <v>9</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1269,117 +1283,131 @@
         <v>14</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="C49" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>81</v>
       </c>
-      <c r="D47" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B54" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="C54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="C55" t="s">
         <v>87</v>
-      </c>
-      <c r="D52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" t="s">
-        <v>90</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>13</v>
+      <c r="A56" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="2"/>
+      <c r="A57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1398,32 +1426,33 @@
     <hyperlink ref="B21" r:id="rId12" location="/operations/select-course-controller/giveUpSelectCourseUsingDELETE" display="http://124.70.195.38:8080/swagger-ui.html - /operations/select-course-controller/giveUpSelectCourseUsingDELETE" xr:uid="{546A83F4-DC7B-4EC8-A7A9-1E0125B0E02B}"/>
     <hyperlink ref="B22" r:id="rId13" location="/operations/select-course-controller/chooseCourseUsingPOST" display="http://124.70.195.38:8080/swagger-ui.html - /operations/select-course-controller/chooseCourseUsingPOST" xr:uid="{1EAFD702-E5A4-4E38-A271-850104481458}"/>
     <hyperlink ref="B23" r:id="rId14" location="/operations/select-course-controller/getOneClassCourseUsingGET" display="http://124.70.195.38:8080/swagger-ui.html - /operations/select-course-controller/getOneClassCourseUsingGET" xr:uid="{0CB50E0C-9224-46B7-AD88-DB7F230B4091}"/>
-    <hyperlink ref="B24" r:id="rId15" location="/operations/select-course-controller/getOneStudentCoursesUsingGET" display="http://124.70.195.38:8080/swagger-ui.html - /operations/select-course-controller/getOneStudentCoursesUsingGET" xr:uid="{5095DF25-321B-430A-8871-583ADE3A9509}"/>
-    <hyperlink ref="B25" r:id="rId16" location="/operations/select-course-controller/getPageUsingGET_2" display="http://124.70.195.38:8080/swagger-ui.html - /operations/select-course-controller/getPageUsingGET_2" xr:uid="{C918E82C-D913-46E0-AC38-B2B15F10CEB6}"/>
-    <hyperlink ref="B26" r:id="rId17" location="/operations/select-course-controller/updateScoreUsingPUT" display="http://124.70.195.38:8080/swagger-ui.html - /operations/select-course-controller/updateScoreUsingPUT" xr:uid="{A77B5719-3D97-4971-977F-7B11F5E7A2D3}"/>
-    <hyperlink ref="B30" r:id="rId18" location="/operations/student-controller/addUsingPOST_1" display="http://124.70.195.38:8080/swagger-ui.html - /operations/student-controller/addUsingPOST_1" xr:uid="{EA78E760-1531-4BC1-9E87-8046FF5D3225}"/>
-    <hyperlink ref="B31" r:id="rId19" location="/operations/student-controller/editUsingPUT_1" display="http://124.70.195.38:8080/swagger-ui.html - /operations/student-controller/editUsingPUT_1" xr:uid="{C103F87B-A0CD-474C-A0F7-0FB7E131F2DB}"/>
-    <hyperlink ref="B32" r:id="rId20" location="/operations/student-controller/getByIdUsingGET_3" display="http://124.70.195.38:8080/swagger-ui.html - /operations/student-controller/getByIdUsingGET_3" xr:uid="{785C81C0-FD8A-4715-802B-A49267FEA521}"/>
-    <hyperlink ref="B33" r:id="rId21" location="/operations/student-controller/infoUsingGET_1" display="http://124.70.195.38:8080/swagger-ui.html - /operations/student-controller/infoUsingGET_1" xr:uid="{4487880A-0C72-46DF-882D-EC819552CCA3}"/>
-    <hyperlink ref="B34" r:id="rId22" location="/operations/student-controller/loginUsingPOST_1" display="http://124.70.195.38:8080/swagger-ui.html - /operations/student-controller/loginUsingPOST_1" xr:uid="{58CA3FCA-DAF5-4276-9874-85F32A7B61E1}"/>
-    <hyperlink ref="B35" r:id="rId23" location="/operations/student-controller/logoutUsingPOST_1" display="http://124.70.195.38:8080/swagger-ui.html - /operations/student-controller/logoutUsingPOST_1" xr:uid="{C1703BB0-84EB-4D77-B6EF-E484D7549D83}"/>
-    <hyperlink ref="B36" r:id="rId24" location="/operations/student-controller/getPageUsingGET_3" display="http://124.70.195.38:8080/swagger-ui.html - /operations/student-controller/getPageUsingGET_3" xr:uid="{1CC56321-A80D-4B41-AAEE-421F7991C86E}"/>
-    <hyperlink ref="B37" r:id="rId25" location="/operations/student-controller/changeStatusUsingPUT" display="http://124.70.195.38:8080/swagger-ui.html - /operations/student-controller/changeStatusUsingPUT" xr:uid="{99EDBBEC-F4DF-44CF-BFEB-EB1B8AB59175}"/>
-    <hyperlink ref="B41" r:id="rId26" location="/operations/teacher-controller/addUsingPOST_2" display="http://124.70.195.38:8080/swagger-ui.html - /operations/teacher-controller/addUsingPOST_2" xr:uid="{F27C50C7-E533-459A-AA4A-17D2E0BF648B}"/>
-    <hyperlink ref="B42" r:id="rId27" location="/operations/teacher-controller/editUsingPUT_2" display="http://124.70.195.38:8080/swagger-ui.html - /operations/teacher-controller/editUsingPUT_2" xr:uid="{B8E3497C-76C0-4903-ADE9-E3CE76766554}"/>
-    <hyperlink ref="B43" r:id="rId28" location="/operations/teacher-controller/getByIdUsingGET_4" display="http://124.70.195.38:8080/swagger-ui.html - /operations/teacher-controller/getByIdUsingGET_4" xr:uid="{8A2DBEBD-76F3-483A-9FD2-46EED7B5D99C}"/>
-    <hyperlink ref="B44" r:id="rId29" location="/operations/teacher-controller/infoUsingGET_2" display="http://124.70.195.38:8080/swagger-ui.html - /operations/teacher-controller/infoUsingGET_2" xr:uid="{A0668152-C894-42F1-85A2-368966A6F9DD}"/>
-    <hyperlink ref="B45" r:id="rId30" location="/operations/teacher-controller/loginUsingPOST_2" display="http://124.70.195.38:8080/swagger-ui.html - /operations/teacher-controller/loginUsingPOST_2" xr:uid="{4F612D0E-3B48-4E3D-99FF-97CC591C3719}"/>
-    <hyperlink ref="B46" r:id="rId31" location="/operations/teacher-controller/logoutUsingPOST_2" display="http://124.70.195.38:8080/swagger-ui.html - /operations/teacher-controller/logoutUsingPOST_2" xr:uid="{4491AB6D-B421-4D8A-BEB9-F6D4BCF0DE92}"/>
-    <hyperlink ref="B47" r:id="rId32" location="/operations/teacher-controller/getPageUsingGET_4" display="http://124.70.195.38:8080/swagger-ui.html - /operations/teacher-controller/getPageUsingGET_4" xr:uid="{B4D481C3-2031-441B-81E5-8461033F8A03}"/>
-    <hyperlink ref="B48" r:id="rId33" location="/operations/teacher-controller/changeStatusUsingPUT_1" display="http://124.70.195.38:8080/swagger-ui.html - /operations/teacher-controller/changeStatusUsingPUT_1" xr:uid="{78603967-A9B9-4D9F-9586-4BB139FF59CE}"/>
-    <hyperlink ref="B52" r:id="rId34" location="/operations/term-schedule-controller/addUsingPOST_3" display="http://124.70.195.38:8080/swagger-ui.html - /operations/term-schedule-controller/addUsingPOST_3" xr:uid="{45A38742-6B2D-4328-A78D-49E6054F1652}"/>
-    <hyperlink ref="B53" r:id="rId35" location="/operations/term-schedule-controller/editUsingPUT_3" display="http://124.70.195.38:8080/swagger-ui.html - /operations/term-schedule-controller/editUsingPUT_3" xr:uid="{47656B11-2A59-4243-B474-D488B330215B}"/>
-    <hyperlink ref="B54" r:id="rId36" location="/operations/term-schedule-controller/getByIdUsingGET_5" display="http://124.70.195.38:8080/swagger-ui.html - /operations/term-schedule-controller/getByIdUsingGET_5" xr:uid="{177AD871-066F-431B-A84E-51C9D05814BD}"/>
-    <hyperlink ref="B55" r:id="rId37" location="/operations/term-schedule-controller/deleteUsingDELETE_1" display="http://124.70.195.38:8080/swagger-ui.html - /operations/term-schedule-controller/deleteUsingDELETE_1" xr:uid="{64FD5051-96BF-4843-96DF-4AD39543DF33}"/>
-    <hyperlink ref="B56" r:id="rId38" location="/operations/term-schedule-controller/getPageUsingGET_5" display="http://124.70.195.38:8080/swagger-ui.html - /operations/term-schedule-controller/getPageUsingGET_5" xr:uid="{49446D9A-4730-4001-ACCD-6B625E95C04E}"/>
+    <hyperlink ref="B26" r:id="rId15" location="/operations/select-course-controller/getOneStudentCoursesUsingGET" display="http://124.70.195.38:8080/swagger-ui.html - /operations/select-course-controller/getOneStudentCoursesUsingGET" xr:uid="{5095DF25-321B-430A-8871-583ADE3A9509}"/>
+    <hyperlink ref="B24" r:id="rId16" location="/operations/select-course-controller/getPageUsingGET_2" display="http://124.70.195.38:8080/swagger-ui.html - /operations/select-course-controller/getPageUsingGET_2" xr:uid="{C918E82C-D913-46E0-AC38-B2B15F10CEB6}"/>
+    <hyperlink ref="B25" r:id="rId17" location="/operations/select-course-controller/updateScoreUsingPUT" display="http://124.70.195.38:8080/swagger-ui.html - /operations/select-course-controller/updateScoreUsingPUT" xr:uid="{A77B5719-3D97-4971-977F-7B11F5E7A2D3}"/>
+    <hyperlink ref="B31" r:id="rId18" location="/operations/student-controller/addUsingPOST_1" display="http://124.70.195.38:8080/swagger-ui.html - /operations/student-controller/addUsingPOST_1" xr:uid="{EA78E760-1531-4BC1-9E87-8046FF5D3225}"/>
+    <hyperlink ref="B32" r:id="rId19" location="/operations/student-controller/editUsingPUT_1" display="http://124.70.195.38:8080/swagger-ui.html - /operations/student-controller/editUsingPUT_1" xr:uid="{C103F87B-A0CD-474C-A0F7-0FB7E131F2DB}"/>
+    <hyperlink ref="B33" r:id="rId20" location="/operations/student-controller/getByIdUsingGET_3" display="http://124.70.195.38:8080/swagger-ui.html - /operations/student-controller/getByIdUsingGET_3" xr:uid="{785C81C0-FD8A-4715-802B-A49267FEA521}"/>
+    <hyperlink ref="B34" r:id="rId21" location="/operations/student-controller/infoUsingGET_1" display="http://124.70.195.38:8080/swagger-ui.html - /operations/student-controller/infoUsingGET_1" xr:uid="{4487880A-0C72-46DF-882D-EC819552CCA3}"/>
+    <hyperlink ref="B35" r:id="rId22" location="/operations/student-controller/loginUsingPOST_1" display="http://124.70.195.38:8080/swagger-ui.html - /operations/student-controller/loginUsingPOST_1" xr:uid="{58CA3FCA-DAF5-4276-9874-85F32A7B61E1}"/>
+    <hyperlink ref="B36" r:id="rId23" location="/operations/student-controller/logoutUsingPOST_1" display="http://124.70.195.38:8080/swagger-ui.html - /operations/student-controller/logoutUsingPOST_1" xr:uid="{C1703BB0-84EB-4D77-B6EF-E484D7549D83}"/>
+    <hyperlink ref="B37" r:id="rId24" location="/operations/student-controller/getPageUsingGET_3" display="http://124.70.195.38:8080/swagger-ui.html - /operations/student-controller/getPageUsingGET_3" xr:uid="{1CC56321-A80D-4B41-AAEE-421F7991C86E}"/>
+    <hyperlink ref="B38" r:id="rId25" location="/operations/student-controller/changeStatusUsingPUT" display="http://124.70.195.38:8080/swagger-ui.html - /operations/student-controller/changeStatusUsingPUT" xr:uid="{99EDBBEC-F4DF-44CF-BFEB-EB1B8AB59175}"/>
+    <hyperlink ref="B42" r:id="rId26" location="/operations/teacher-controller/addUsingPOST_2" display="http://124.70.195.38:8080/swagger-ui.html - /operations/teacher-controller/addUsingPOST_2" xr:uid="{F27C50C7-E533-459A-AA4A-17D2E0BF648B}"/>
+    <hyperlink ref="B43" r:id="rId27" location="/operations/teacher-controller/editUsingPUT_2" display="http://124.70.195.38:8080/swagger-ui.html - /operations/teacher-controller/editUsingPUT_2" xr:uid="{B8E3497C-76C0-4903-ADE9-E3CE76766554}"/>
+    <hyperlink ref="B44" r:id="rId28" location="/operations/teacher-controller/getByIdUsingGET_4" display="http://124.70.195.38:8080/swagger-ui.html - /operations/teacher-controller/getByIdUsingGET_4" xr:uid="{8A2DBEBD-76F3-483A-9FD2-46EED7B5D99C}"/>
+    <hyperlink ref="B45" r:id="rId29" location="/operations/teacher-controller/infoUsingGET_2" display="http://124.70.195.38:8080/swagger-ui.html - /operations/teacher-controller/infoUsingGET_2" xr:uid="{A0668152-C894-42F1-85A2-368966A6F9DD}"/>
+    <hyperlink ref="B46" r:id="rId30" location="/operations/teacher-controller/loginUsingPOST_2" display="http://124.70.195.38:8080/swagger-ui.html - /operations/teacher-controller/loginUsingPOST_2" xr:uid="{4F612D0E-3B48-4E3D-99FF-97CC591C3719}"/>
+    <hyperlink ref="B47" r:id="rId31" location="/operations/teacher-controller/logoutUsingPOST_2" display="http://124.70.195.38:8080/swagger-ui.html - /operations/teacher-controller/logoutUsingPOST_2" xr:uid="{4491AB6D-B421-4D8A-BEB9-F6D4BCF0DE92}"/>
+    <hyperlink ref="B48" r:id="rId32" location="/operations/teacher-controller/getPageUsingGET_4" display="http://124.70.195.38:8080/swagger-ui.html - /operations/teacher-controller/getPageUsingGET_4" xr:uid="{B4D481C3-2031-441B-81E5-8461033F8A03}"/>
+    <hyperlink ref="B49" r:id="rId33" location="/operations/teacher-controller/changeStatusUsingPUT_1" display="http://124.70.195.38:8080/swagger-ui.html - /operations/teacher-controller/changeStatusUsingPUT_1" xr:uid="{78603967-A9B9-4D9F-9586-4BB139FF59CE}"/>
+    <hyperlink ref="B53" r:id="rId34" location="/operations/term-schedule-controller/addUsingPOST_3" display="http://124.70.195.38:8080/swagger-ui.html - /operations/term-schedule-controller/addUsingPOST_3" xr:uid="{45A38742-6B2D-4328-A78D-49E6054F1652}"/>
+    <hyperlink ref="B54" r:id="rId35" location="/operations/term-schedule-controller/editUsingPUT_3" display="http://124.70.195.38:8080/swagger-ui.html - /operations/term-schedule-controller/editUsingPUT_3" xr:uid="{47656B11-2A59-4243-B474-D488B330215B}"/>
+    <hyperlink ref="B55" r:id="rId36" location="/operations/term-schedule-controller/getByIdUsingGET_5" display="http://124.70.195.38:8080/swagger-ui.html - /operations/term-schedule-controller/getByIdUsingGET_5" xr:uid="{177AD871-066F-431B-A84E-51C9D05814BD}"/>
+    <hyperlink ref="B56" r:id="rId37" location="/operations/term-schedule-controller/deleteUsingDELETE_1" display="http://124.70.195.38:8080/swagger-ui.html - /operations/term-schedule-controller/deleteUsingDELETE_1" xr:uid="{64FD5051-96BF-4843-96DF-4AD39543DF33}"/>
+    <hyperlink ref="B57" r:id="rId38" location="/operations/term-schedule-controller/getPageUsingGET_5" display="http://124.70.195.38:8080/swagger-ui.html - /operations/term-schedule-controller/getPageUsingGET_5" xr:uid="{49446D9A-4730-4001-ACCD-6B625E95C04E}"/>
+    <hyperlink ref="B27" r:id="rId39" location="/operations/select-course-controller/getOneTeacherCoursesUsingGET" display="http://localhost:8080/swagger-ui.html - /operations/select-course-controller/getOneTeacherCoursesUsingGET" xr:uid="{4E3412B6-55F8-4387-86F8-FD4216DC2E8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>